--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_26.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_26.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9496981856374621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7334253844004115</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7240553660833415</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999794873058503</v>
+        <v>0.9743086037163737</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1763335425349328</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173451248867095</v>
+        <v>1.782585681977688</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9870379553306997</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005617603112335257</v>
+        <v>0.09761964076751607</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.48811736910156</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4199208765171515</v>
       </c>
       <c r="L2" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9315039123573952</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.426534210555422</v>
       </c>
       <c r="N2" t="n">
-        <v>143.7767041506904</v>
+        <v>37.47075589878833</v>
       </c>
       <c r="O2" t="n">
-        <v>285.1118766939068</v>
+        <v>74.43533948701415</v>
       </c>
     </row>
     <row r="3">
@@ -561,438 +561,438 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9497267195692725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7333660245019376</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.724267248926753</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999794873058503</v>
+        <v>0.9742687443097101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1762335165350294</v>
       </c>
       <c r="G3" t="n">
-        <v>1.173451248867095</v>
+        <v>1.78298262189211</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9862800626854898</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0005617603112335257</v>
+        <v>0.09777109462065613</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.488837438505044</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4198017586135501</v>
       </c>
       <c r="L3" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9315427670730518</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.426413216663913</v>
       </c>
       <c r="N3" t="n">
-        <v>143.7767041506904</v>
+        <v>37.47189072973767</v>
       </c>
       <c r="O3" t="n">
-        <v>285.1118766939068</v>
+        <v>74.43647431796349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_2</t>
+          <t>model_1_26_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9498560173602335</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7327187130947864</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.725965638818854</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999794873058503</v>
+        <v>0.973782620774872</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1757802617606038</v>
       </c>
       <c r="G4" t="n">
-        <v>1.173451248867095</v>
+        <v>1.787311196252324</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9802050205197489</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005617603112335257</v>
+        <v>0.09961821901652955</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.494787081953843</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4192615672353045</v>
       </c>
       <c r="L4" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9317188321501052</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4258645178114533</v>
       </c>
       <c r="N4" t="n">
-        <v>143.7767041506904</v>
+        <v>37.47704115341833</v>
       </c>
       <c r="O4" t="n">
-        <v>285.1118766939068</v>
+        <v>74.44162474164415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_3</t>
+          <t>model_1_26_9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.949925561052806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7326030605704488</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7267542590520391</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999794873058503</v>
+        <v>0.9735251758309497</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1755364756103887</v>
       </c>
       <c r="G5" t="n">
-        <v>1.173451248867095</v>
+        <v>1.788084565215101</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.977384171672474</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0005617603112335257</v>
+        <v>0.1005964329939118</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.500279633799011</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4189707335964992</v>
       </c>
       <c r="L5" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9318135299442465</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4255691038335638</v>
       </c>
       <c r="N5" t="n">
-        <v>143.7767041506904</v>
+        <v>37.47981683887151</v>
       </c>
       <c r="O5" t="n">
-        <v>285.1118766939068</v>
+        <v>74.44440042709734</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_4</t>
+          <t>model_1_26_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9497751170155465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7324851687642171</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7258458406128091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999794873058503</v>
+        <v>0.9737374218281206</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1760638587749806</v>
       </c>
       <c r="G6" t="n">
-        <v>1.173451248867095</v>
+        <v>1.788872908266215</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9806335317564721</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005617603112335257</v>
+        <v>0.09978996152893428</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.492077270719928</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4195996410567824</v>
       </c>
       <c r="L6" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9316086699786166</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4262079159576697</v>
       </c>
       <c r="N6" t="n">
-        <v>143.7767041506904</v>
+        <v>37.4738170316071</v>
       </c>
       <c r="O6" t="n">
-        <v>285.1118766939068</v>
+        <v>74.43840061983292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_5</t>
+          <t>model_1_26_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9497245264243082</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7323315100258965</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7257975885712347</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999794873058503</v>
+        <v>0.9736946698362663</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1762412046279095</v>
       </c>
       <c r="G7" t="n">
-        <v>1.173451248867095</v>
+        <v>1.789900424956898</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9808061265113697</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0005617603112335257</v>
+        <v>0.09995240634278747</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.490625643433692</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4198109153272572</v>
       </c>
       <c r="L7" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9315397806628877</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4264225175867077</v>
       </c>
       <c r="N7" t="n">
-        <v>143.7767041506904</v>
+        <v>37.47180348271063</v>
       </c>
       <c r="O7" t="n">
-        <v>285.1118766939068</v>
+        <v>74.43638707093646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_6</t>
+          <t>model_1_26_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9496978223002921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7322532396640729</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7257742874891862</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999794873058503</v>
+        <v>0.973672712208823</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1763348162172274</v>
       </c>
       <c r="G8" t="n">
-        <v>1.173451248867095</v>
+        <v>1.790423819226814</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9808894731307832</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0005617603112335257</v>
+        <v>0.1000358387759432</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.489889130533619</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.419922393088565</v>
       </c>
       <c r="L8" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9315034176003978</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4265357510113192</v>
       </c>
       <c r="N8" t="n">
-        <v>143.7767041506904</v>
+        <v>37.47074145255563</v>
       </c>
       <c r="O8" t="n">
-        <v>285.1118766939068</v>
+        <v>74.43532504078145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_7</t>
+          <t>model_1_26_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9496553264700056</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.732249027507401</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7255420788641008</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999794873058503</v>
+        <v>0.9737037386442025</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1764837857999817</v>
       </c>
       <c r="G9" t="n">
-        <v>1.173451248867095</v>
+        <v>1.790451985937875</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9817200699184835</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0005617603112335257</v>
+        <v>0.09991794757833784</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.488462628330031</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4200997331586652</v>
       </c>
       <c r="L9" t="n">
-        <v>1.015676519475498</v>
+        <v>0.93144555093788</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4267158840102485</v>
       </c>
       <c r="N9" t="n">
-        <v>143.7767041506904</v>
+        <v>37.46905254396912</v>
       </c>
       <c r="O9" t="n">
-        <v>285.1118766939068</v>
+        <v>74.43363613219493</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_8</t>
+          <t>model_1_26_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9496831392080779</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7322083298501931</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7257631289207589</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999794873058503</v>
+        <v>0.973658036374891</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1763862879523587</v>
       </c>
       <c r="G10" t="n">
-        <v>1.173451248867095</v>
+        <v>1.790724131359018</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9809293866830362</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0005617603112335257</v>
+        <v>0.1000916025663028</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.48951382822929</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4199836758165235</v>
       </c>
       <c r="L10" t="n">
-        <v>1.015676519475498</v>
+        <v>0.931483423602489</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4265979988809828</v>
       </c>
       <c r="N10" t="n">
-        <v>143.7767041506904</v>
+        <v>37.47015774225434</v>
       </c>
       <c r="O10" t="n">
-        <v>285.1118766939068</v>
+        <v>74.43474133048015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_9</t>
+          <t>model_1_26_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9496729653854192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7321971721762772</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7257252522384321</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999794873058503</v>
+        <v>0.9736588298728719</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1764219523953466</v>
       </c>
       <c r="G11" t="n">
-        <v>1.173451248867095</v>
+        <v>1.79079874277587</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9810648693795031</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005617603112335257</v>
+        <v>0.1000885875107182</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.489222622873104</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4200261329909683</v>
       </c>
       <c r="L11" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9314695698865283</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4266411247134835</v>
       </c>
       <c r="N11" t="n">
-        <v>143.7767041506904</v>
+        <v>37.46975339293331</v>
       </c>
       <c r="O11" t="n">
-        <v>285.1118766939068</v>
+        <v>74.43433698115913</v>
       </c>
     </row>
   </sheetData>
